--- a/Outputs/5. Budget constrained/Output Files/1500000/Output_22_30.xlsx
+++ b/Outputs/5. Budget constrained/Output Files/1500000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262360.462464099</v>
+        <v>2259828.745709589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9548792.269784357</v>
+        <v>9548792.269784356</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>37.11181591693609</v>
       </c>
       <c r="W2" t="n">
-        <v>37.11181591693632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.82583598832378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>36.39469600159763</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>142.9402471360602</v>
+        <v>66.44208389990469</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>92.36941963441548</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>99.45377603815227</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>80.69266863634614</v>
       </c>
       <c r="V6" t="n">
-        <v>202.7440554020206</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>45.55897913915357</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>143.3991040965659</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.6042843978729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>54.39299565183727</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>306.5316495765362</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>131.0490433666189</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719218</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>193.4096594611833</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>56.85215741764605</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>107.2570757305867</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.4685604846693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>135.3286065175526</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098625</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>64.40601307691647</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>154.0489950679129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>10.63412424768206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.207802455916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633182675</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.02686156550082</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890417</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.8435308896544</v>
+        <v>14.92158678358204</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>36.39209596079195</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123835</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985591</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201479</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>578.242639237266</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="T2" t="n">
-        <v>388.822854220781</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="U2" t="n">
-        <v>199.403069204296</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="V2" t="n">
-        <v>199.403069204296</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="W2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="X2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323105</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>196.8097493511835</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652805</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487955</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487955</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487955</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323105</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323105</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323105</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.718260649058</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="C4" t="n">
-        <v>436.7820777211512</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="D4" t="n">
-        <v>436.7820777211512</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="E4" t="n">
-        <v>288.868984138758</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
-        <v>141.9790366408477</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
         <v>106.7151088594234</v>
@@ -4495,43 +4495,43 @@
         <v>118.7527324484196</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430766</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N4" t="n">
-        <v>490.0533950377335</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O4" t="n">
-        <v>652.7915984742837</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652805</v>
+        <v>615.938338957512</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652805</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652805</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652805</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="V4" t="n">
-        <v>605.718260649058</v>
+        <v>359.4053378805173</v>
       </c>
       <c r="W4" t="n">
-        <v>605.718260649058</v>
+        <v>359.4053378805173</v>
       </c>
       <c r="X4" t="n">
-        <v>605.718260649058</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="Y4" t="n">
-        <v>605.718260649058</v>
+        <v>169.9855528640325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.5810813959149</v>
+        <v>823.5252186838738</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2786373207477</v>
+        <v>823.5252186838738</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2786373207477</v>
+        <v>465.2595200771233</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2786373207477</v>
+        <v>364.8011604426261</v>
       </c>
       <c r="F5" t="n">
-        <v>141.3331365715442</v>
+        <v>357.8556596934226</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038229</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4595,22 +4595,22 @@
         <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1332.709567064687</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1332.709567064687</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="V5" t="n">
-        <v>1001.646679721117</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.646679721117</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="X5" t="n">
-        <v>628.1809214600366</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="Y5" t="n">
-        <v>628.1809214600366</v>
+        <v>823.5252186838738</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>635.4807448239128</v>
+        <v>192.966666068014</v>
       </c>
       <c r="C6" t="n">
-        <v>461.0277155427858</v>
+        <v>192.966666068014</v>
       </c>
       <c r="D6" t="n">
-        <v>312.0933058815345</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>312.0933058815345</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>451.1842149794078</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277258</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1356.731092240781</v>
       </c>
       <c r="P6" t="n">
         <v>1621.182402866226</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1490.841830594767</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1262.725413725739</v>
+        <v>1266.183267018513</v>
       </c>
       <c r="V6" t="n">
-        <v>1057.933438572182</v>
+        <v>1031.03115878677</v>
       </c>
       <c r="W6" t="n">
-        <v>803.6960818439809</v>
+        <v>776.7938020585689</v>
       </c>
       <c r="X6" t="n">
-        <v>803.6960818439809</v>
+        <v>568.942301853036</v>
       </c>
       <c r="Y6" t="n">
-        <v>803.6960818439809</v>
+        <v>361.1820030880821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.8012042504311</v>
+        <v>330.7357979728046</v>
       </c>
       <c r="C7" t="n">
-        <v>229.8650213225241</v>
+        <v>330.7357979728046</v>
       </c>
       <c r="D7" t="n">
-        <v>79.74838191018841</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255854</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.659418261162</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1090.659418261162</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>1090.659418261162</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="V7" t="n">
-        <v>1090.659418261162</v>
+        <v>696.3759570118558</v>
       </c>
       <c r="W7" t="n">
-        <v>801.2422482242009</v>
+        <v>551.5283771163347</v>
       </c>
       <c r="X7" t="n">
-        <v>801.2422482242009</v>
+        <v>551.5283771163347</v>
       </c>
       <c r="Y7" t="n">
-        <v>580.4496690806708</v>
+        <v>330.7357979728046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>432.2133502005269</v>
+        <v>1288.72325355387</v>
       </c>
       <c r="C8" t="n">
-        <v>63.25083326011521</v>
+        <v>1288.72325355387</v>
       </c>
       <c r="D8" t="n">
-        <v>63.25083326011521</v>
+        <v>930.4575549471199</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011521</v>
+        <v>544.6693023488756</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091174</v>
+        <v>537.7238015996721</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761831</v>
+        <v>121.7336115759746</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761831</v>
+        <v>121.7336115759746</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761831</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872711</v>
+        <v>156.8927045872699</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159002</v>
+        <v>376.2952505158981</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985283</v>
+        <v>685.3852714985251</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556944</v>
+        <v>1060.97691255694</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415489</v>
+        <v>1447.259827415483</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.68056897511</v>
+        <v>1798.680568975103</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631089</v>
+        <v>2064.109040631081</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208127</v>
+        <v>2215.262022208119</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380915</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650146</v>
+        <v>2086.573660650137</v>
       </c>
       <c r="T8" t="n">
-        <v>2086.573660650146</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="U8" t="n">
-        <v>1832.969764734487</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="V8" t="n">
-        <v>1501.906877390917</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="W8" t="n">
-        <v>1192.278948525729</v>
+        <v>1678.862585529682</v>
       </c>
       <c r="X8" t="n">
-        <v>818.8131902646487</v>
+        <v>1678.862585529682</v>
       </c>
       <c r="Y8" t="n">
-        <v>818.8131902646487</v>
+        <v>1288.72325355387</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>810.3691327353167</v>
+        <v>583.2797313720716</v>
       </c>
       <c r="C9" t="n">
-        <v>635.9161034541897</v>
+        <v>408.8267020909447</v>
       </c>
       <c r="D9" t="n">
-        <v>486.9816937929385</v>
+        <v>276.4539310135518</v>
       </c>
       <c r="E9" t="n">
-        <v>327.744238787483</v>
+        <v>276.4539310135518</v>
       </c>
       <c r="F9" t="n">
-        <v>181.2096808143679</v>
+        <v>276.4539310135518</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35554652761831</v>
+        <v>139.5997967268021</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761831</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761831</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412456</v>
+        <v>92.56405995424029</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9450376513129</v>
+        <v>470.0740394137285</v>
       </c>
       <c r="L9" t="n">
-        <v>732.2770152434083</v>
+        <v>732.2770152434042</v>
       </c>
       <c r="M9" t="n">
-        <v>1057.612388893514</v>
+        <v>1057.612388893509</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.512277172791</v>
+        <v>1606.512277172783</v>
       </c>
       <c r="O9" t="n">
-        <v>1902.968955587943</v>
+        <v>1902.968955587935</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855271</v>
+        <v>2121.568509855263</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380915</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380915</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472982</v>
+        <v>2079.218696472973</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064438</v>
+        <v>1884.596484064429</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.49633232258</v>
+        <v>1656.496332322571</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090837</v>
+        <v>1421.344224090828</v>
       </c>
       <c r="W9" t="n">
-        <v>1225.980931705803</v>
+        <v>1167.106867362626</v>
       </c>
       <c r="X9" t="n">
-        <v>1018.129431500271</v>
+        <v>959.2553671570936</v>
       </c>
       <c r="Y9" t="n">
-        <v>810.3691327353167</v>
+        <v>751.4950683921397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.3473259688668</v>
+        <v>248.6719156595144</v>
       </c>
       <c r="C10" t="n">
-        <v>362.3473259688668</v>
+        <v>191.2454940255285</v>
       </c>
       <c r="D10" t="n">
-        <v>362.3473259688668</v>
+        <v>191.2454940255285</v>
       </c>
       <c r="E10" t="n">
-        <v>362.3473259688668</v>
+        <v>191.2454940255285</v>
       </c>
       <c r="F10" t="n">
-        <v>362.3473259688668</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="G10" t="n">
-        <v>194.232822832813</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761831</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761831</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692028</v>
+        <v>60.95254262691989</v>
       </c>
       <c r="K10" t="n">
-        <v>218.063342327403</v>
+        <v>218.0633423274023</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918436</v>
+        <v>474.6375091918425</v>
       </c>
       <c r="M10" t="n">
-        <v>755.548116892171</v>
+        <v>755.5481168921694</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.213914629316</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.51424854613</v>
+        <v>1277.514248546128</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659239</v>
+        <v>1461.323360659237</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620021</v>
+        <v>1396.807701620018</v>
       </c>
       <c r="S10" t="n">
-        <v>1197.947592890926</v>
+        <v>1197.947592890923</v>
       </c>
       <c r="T10" t="n">
-        <v>1197.947592890926</v>
+        <v>974.4220387326015</v>
       </c>
       <c r="U10" t="n">
-        <v>908.8222714796182</v>
+        <v>974.4220387326015</v>
       </c>
       <c r="V10" t="n">
-        <v>908.8222714796182</v>
+        <v>719.7375505267147</v>
       </c>
       <c r="W10" t="n">
-        <v>908.8222714796182</v>
+        <v>430.3203804897541</v>
       </c>
       <c r="X10" t="n">
-        <v>680.8327205816008</v>
+        <v>430.3203804897541</v>
       </c>
       <c r="Y10" t="n">
-        <v>543.9957907991065</v>
+        <v>430.3203804897541</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.221817693721</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1954.146591037919</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.462102832032</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784034</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1623.329274989134</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.912104952173</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952173</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808643</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="17">
@@ -5501,37 +5501,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>186.6449060441816</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,25 +6245,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6309,10 +6309,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
         <v>1731.250242493492</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622248</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343179</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219821</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E28" t="n">
-        <v>449.343984139589</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4540366416786</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565586</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>135.2579373565586</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832661</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892464</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6698,13 +6698,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588916</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690899</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406468</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>527.7722521572603</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>379.8591585748671</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8143,16 +8143,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>152.808936860374</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>116.4012961287068</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>147.3598584166009</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>180.3980153007106</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>93.05287845629886</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>219.1506330802236</v>
       </c>
       <c r="L9" t="n">
-        <v>93.05959773981715</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>202.5709196348715</v>
+        <v>202.5709196348701</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688311</v>
+        <v>30.32522655688332</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.07684380973285</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.505489761042</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>187.7316302469115</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>98.08864825591513</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604421</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>40.23897475306472</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.74112246244039</v>
+        <v>203.6630665685128</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.0289520621393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845238.4004106821</v>
+        <v>845238.400410682</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
@@ -26329,28 +26329,28 @@
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296906</v>
+        <v>138712.7919296885</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745749</v>
+        <v>589678.7921745768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854467</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153561</v>
+        <v>60247.1595915357</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484301</v>
+        <v>33617.87336484245</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167273</v>
+        <v>154073.8510167279</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278154.084291208</v>
+        <v>278152.6193135309</v>
       </c>
       <c r="C4" t="n">
-        <v>209232.0643825357</v>
+        <v>209229.9436483019</v>
       </c>
       <c r="D4" t="n">
-        <v>170361.7543786259</v>
+        <v>170359.4470810001</v>
       </c>
       <c r="E4" t="n">
-        <v>14203.56987858524</v>
+        <v>14202.29031655195</v>
       </c>
       <c r="F4" t="n">
-        <v>14203.56987858524</v>
+        <v>14202.29031655195</v>
       </c>
       <c r="G4" t="n">
-        <v>14203.56987858522</v>
+        <v>14202.29031655197</v>
       </c>
       <c r="H4" t="n">
-        <v>14203.56987858521</v>
+        <v>14202.29031655195</v>
       </c>
       <c r="I4" t="n">
-        <v>14203.56987858519</v>
+        <v>14202.29031655195</v>
       </c>
       <c r="J4" t="n">
-        <v>14203.56987858519</v>
+        <v>14202.29031655195</v>
       </c>
       <c r="K4" t="n">
-        <v>14203.56987858519</v>
+        <v>14202.29031655197</v>
       </c>
       <c r="L4" t="n">
-        <v>14203.56987858519</v>
+        <v>14202.29031655195</v>
       </c>
       <c r="M4" t="n">
-        <v>14203.56987858519</v>
+        <v>14202.29031655197</v>
       </c>
       <c r="N4" t="n">
-        <v>14203.56987858521</v>
+        <v>14202.29031655197</v>
       </c>
       <c r="O4" t="n">
-        <v>14203.56987858521</v>
+        <v>14202.29031655195</v>
       </c>
       <c r="P4" t="n">
-        <v>14203.56987858519</v>
+        <v>14202.29031655195</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969309</v>
+        <v>86168.04029969292</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310715.459825455</v>
+        <v>-310713.9948477777</v>
       </c>
       <c r="C6" t="n">
-        <v>71814.07207865163</v>
+        <v>71816.19281288522</v>
       </c>
       <c r="D6" t="n">
-        <v>220538.7407902031</v>
+        <v>220541.048087831</v>
       </c>
       <c r="E6" t="n">
-        <v>-99644.94210956269</v>
+        <v>-99678.40047296719</v>
       </c>
       <c r="F6" t="n">
-        <v>490033.8500650121</v>
+        <v>490000.3917016097</v>
       </c>
       <c r="G6" t="n">
-        <v>490033.8500650119</v>
+        <v>490000.3917016095</v>
       </c>
       <c r="H6" t="n">
-        <v>490033.8500650117</v>
+        <v>490000.3917016098</v>
       </c>
       <c r="I6" t="n">
-        <v>490033.8500650119</v>
+        <v>490000.3917016094</v>
       </c>
       <c r="J6" t="n">
-        <v>440968.9053364673</v>
+        <v>440935.4469730651</v>
       </c>
       <c r="K6" t="n">
-        <v>429786.6904734763</v>
+        <v>429753.232110074</v>
       </c>
       <c r="L6" t="n">
-        <v>456415.9767001691</v>
+        <v>456382.5183367669</v>
       </c>
       <c r="M6" t="n">
-        <v>335959.9990482845</v>
+        <v>335926.5406848816</v>
       </c>
       <c r="N6" t="n">
-        <v>490033.8500650117</v>
+        <v>490000.3917016096</v>
       </c>
       <c r="O6" t="n">
-        <v>490033.8500650119</v>
+        <v>490000.3917016097</v>
       </c>
       <c r="P6" t="n">
-        <v>490033.8500650119</v>
+        <v>490000.3917016095</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790452</v>
+        <v>863.7717861790436</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952288</v>
+        <v>554.4443315952266</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814352</v>
+        <v>113.7908296814336</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626286</v>
+        <v>504.2037141626301</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132471</v>
+        <v>132.8291933132448</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044195</v>
+        <v>618.2639565044218</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.089551115662</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132471</v>
+        <v>132.8291933132448</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044194</v>
+        <v>618.2639565044218</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132471</v>
+        <v>132.8291933132448</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044195</v>
+        <v>618.2639565044218</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988666</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871021</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>290.6404425531988</v>
       </c>
       <c r="W2" t="n">
-        <v>312.1291528004767</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.619229576315</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681112</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459948</v>
+        <v>215.300287159322</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,13 +27594,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>109.1973961877678</v>
+        <v>185.6955594239233</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>272.9034721365921</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>282.4765940341095</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>145.1425840639922</v>
       </c>
       <c r="V6" t="n">
-        <v>30.05653174740462</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8749835074156</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>143.1238942400251</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787265</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>153.5022067002388</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>42.7093191408768</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16.39602219801981</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155182</v>
+        <v>25.42862793155193</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>58.28532369973627</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>110.3946636809818</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.11609286742546</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.815998142204466e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.815998142204466e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31361,7 +31361,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31394,7 +31394,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31467,13 +31467,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674551</v>
+        <v>3.472449391674544</v>
       </c>
       <c r="H8" t="n">
-        <v>35.562222332487</v>
+        <v>35.56222233248694</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725333</v>
+        <v>133.871605172533</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566382</v>
+        <v>294.7198015566377</v>
       </c>
       <c r="K8" t="n">
-        <v>441.708584306222</v>
+        <v>441.7085843062212</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766821</v>
+        <v>547.9785573766811</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458745</v>
+        <v>609.7317292458733</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799698</v>
+        <v>619.5978260799686</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415059</v>
+        <v>585.0686574415049</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845404</v>
+        <v>499.3425630845394</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451954</v>
+        <v>374.9854692451947</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997767</v>
+        <v>218.1262490997763</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278391</v>
+        <v>79.12844051278377</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205535</v>
+        <v>15.20064721205533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277795951333964</v>
+        <v>0.2777959513339635</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328512</v>
+        <v>1.857924219328509</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930432</v>
+        <v>17.94363653930429</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986326</v>
+        <v>63.96800491986315</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743662</v>
+        <v>175.5330947743658</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693765</v>
+        <v>300.014017469376</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169211</v>
+        <v>403.4058705169203</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675796</v>
+        <v>470.7556234675787</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436906</v>
+        <v>483.2151240436897</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627799</v>
+        <v>442.0474347627791</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873894</v>
+        <v>354.7820379873887</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391975</v>
+        <v>237.162396839197</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070808</v>
+        <v>115.3542774070806</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498353</v>
+        <v>34.51012749498346</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363606</v>
+        <v>7.488738410363593</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.1222318565347704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765491</v>
+        <v>1.557621253765488</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529683</v>
+        <v>13.84866896529681</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869315</v>
+        <v>46.84191915869306</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412202</v>
+        <v>110.12382264122</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011179</v>
+        <v>180.9672693011176</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552804</v>
+        <v>231.57579985528</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243487</v>
+        <v>244.1642116243483</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057685</v>
+        <v>238.358532405768</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231442</v>
+        <v>220.1626841231438</v>
       </c>
       <c r="P10" t="n">
-        <v>188.387210546328</v>
+        <v>188.3872105463277</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130358</v>
+        <v>130.4295397130356</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658289</v>
+        <v>70.03631564658275</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516768</v>
+        <v>27.14509039516764</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543461</v>
+        <v>6.655290811543448</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629962</v>
+        <v>0.08496115929629947</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297445</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,10 +32555,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>395.1848490935921</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>691.6611968462892</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>360.3952288121461</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>506.0735392239789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1777416630679</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>168.9203199809856</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>98.29368706161296</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>270.0094465683977</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>267.1225359852983</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299519</v>
+        <v>113.6738970299514</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612415</v>
+        <v>221.6187332612407</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066949</v>
+        <v>312.2121424066939</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186018</v>
+        <v>379.3854960186006</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833788</v>
+        <v>390.1847624833777</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198192</v>
+        <v>354.9704460198182</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292709</v>
+        <v>268.1095673292699</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707459</v>
+        <v>152.6797793707453</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644591</v>
+        <v>2.540711285644164</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481083</v>
+        <v>48.69546810769916</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950175</v>
+        <v>381.3232115752406</v>
       </c>
       <c r="L9" t="n">
-        <v>357.9110884768641</v>
+        <v>264.8514907370462</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455613</v>
+        <v>328.6215895455604</v>
       </c>
       <c r="N9" t="n">
-        <v>554.4443315952288</v>
+        <v>554.4443315952266</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183354</v>
+        <v>299.4511903183346</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730592</v>
+        <v>220.8076305730585</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317598</v>
+        <v>97.18062275317553</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454744</v>
+        <v>16.76464252454724</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752351</v>
+        <v>158.6977774752347</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155966</v>
+        <v>259.1658251155961</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861893</v>
+        <v>283.7480885861889</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849971</v>
+        <v>282.4907047849966</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371839</v>
+        <v>244.7478120371835</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112215</v>
+        <v>185.6657698112212</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134142</v>
+        <v>44.2674964613412</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553855</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>253.0508151715738</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>560.3194847629559</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066234</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299897</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>372.0991318096486</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>416.6233618831937</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
